--- a/pabi_budget_drilldown_report/xlsx_template/budget_overall_report.xlsx
+++ b/pabi_budget_drilldown_report/xlsx_template/budget_overall_report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t xml:space="preserve">Budget Overall Report</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Orgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget Method</t>
   </si>
   <si>
     <t xml:space="preserve">Run By</t>
@@ -286,10 +289,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -332,167 +335,172 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="M10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="M18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="M26" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
